--- a/biology/Botanique/Manettia_alba/Manettia_alba.xlsx
+++ b/biology/Botanique/Manettia_alba/Manettia_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manettia alba est une espèce néotropicale de liane néotropicale, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Manettia alba est une liane herbacée volubile.
 Les feuilles mesurent 3,5-7 × 1,5-3,5 cm, comportant 3-10 paires de nervures secondaires, avec des pétioles longs de 5-12 mm, et des stipules d'environ 1 mm de long.
 Les inflorescences sont cymeuses, mesurant 2,5-3,5 × 2-3 cm.
 Le calice porte 4 lobes longs de 0,5-1,5 mm de long. La corolle est de couleur vert pâle à blanc, avec un tube long de 2-2,5 mm, et des lobes d'environ 2,5 mm.
-Ses fruits sont des capsules mesurant 4-6 × 3-5 mm, et ses semences 1-1,5 mm de diamètre[3].
+Ses fruits sont des capsules mesurant 4-6 × 3-5 mm, et ses semences 1-1,5 mm de diamètre.
 En 1953, Lemée en propose la description suivante de Faramea guianensis :
 « Liane subglabre ; feuilles de 0,03-0,07 environ sur 0,01-0,03, ovales ou elliptiques aiguës ou acuminées, à base aiguë ou obtuse, glabres, avec 4-5 paires de nervures latérales saillantes en dessous, stipules largement triangulaires; inflorescences en cymes axillaires pauciflores . pédonculées, fleurs à pédicelle court, blanches ou bleues, petites, calice à 4 dents, corolle à tube cylindrique de 3 mm. environ élargi vers le sommet, poilu dans la gorge, lobes poilus en dessus ; capsule de 4-5 mm environ, ovale glabre. »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manettia alba est présente du Venezuela au nord-est du Brésil en passant par le Guyana, le Suriname, et la Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manettia alba est présente du Venezuela au nord-est du Brésil en passant par le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manettia alba pousse au Venezuela dans les Forêts humides montagnardes ou sub-montagnardes, à 300-1 200 m d'altitude[3] et les formations ripicoles[5] et forêts de terre ferme[6] en Guyane.
-Sa taxonomie a été précisée[7].
-Manettia coccinea a été retrouvé dans des prélèvements palynologiques anciens de l'Holocène en Guyane[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manettia alba pousse au Venezuela dans les Forêts humides montagnardes ou sub-montagnardes, à 300-1 200 m d'altitude et les formations ripicoles et forêts de terre ferme en Guyane.
+Sa taxonomie a été précisée.
+Manettia coccinea a été retrouvé dans des prélèvements palynologiques anciens de l'Holocène en Guyane,.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[10] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. NACIBEA (alba) caulibus ſcandentibus ; foliis ovatis, acutis; calice florum quadri-dentato. (Tabula 37. Fig. 2).
 Hæc ſpecies diſſert à précédenti, calice quadridentato, corolla breviori, albà, &amp; foliis latioribus, ex luteo variegatis.
 Floret eodem tempore ; &amp; iifdem locis reperitur.
